--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Practices\01.Clean-Code\StringCompress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Creterio</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Criterios de Codigo Limpio:Los Nombres de las variables y Funciones: (0.1/ cada una)</t>
+  </si>
+  <si>
+    <t>No Compila</t>
   </si>
 </sst>
 </file>
@@ -261,9 +264,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,26 +271,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -577,7 +570,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +602,12 @@
       <c r="B2" s="3">
         <v>0.5</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -622,7 +617,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11"/>
     </row>
@@ -633,8 +628,8 @@
       <c r="B4" s="3">
         <v>1.5</v>
       </c>
-      <c r="C4" s="20">
-        <v>1.5</v>
+      <c r="C4" s="19">
+        <v>0</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -646,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -657,9 +652,8 @@
       <c r="B6" s="3">
         <v>1.5</v>
       </c>
-      <c r="C6" s="19">
-        <f>SUM(C10:C24)</f>
-        <v>1.5000000000000002</v>
+      <c r="C6" s="22">
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -670,7 +664,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -696,7 +690,7 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3">
@@ -709,7 +703,7 @@
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5">
@@ -722,7 +716,7 @@
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3">
@@ -735,7 +729,7 @@
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5">
@@ -748,7 +742,7 @@
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3">
@@ -761,7 +755,7 @@
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5">
@@ -774,7 +768,7 @@
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3">
@@ -787,7 +781,7 @@
       <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5">
@@ -800,7 +794,7 @@
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3">
@@ -813,7 +807,7 @@
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5">
@@ -826,7 +820,7 @@
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3">
@@ -839,7 +833,7 @@
       <c r="A21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5">
@@ -852,7 +846,7 @@
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3">
@@ -865,7 +859,7 @@
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="5">
@@ -878,7 +872,7 @@
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3">

--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Creterio</t>
   </si>
@@ -111,6 +111,33 @@
   </si>
   <si>
     <t>No hay Proyecto y no se puede ejecutar</t>
+  </si>
+  <si>
+    <t>Se puede simplificar los If</t>
+  </si>
+  <si>
+    <t>Falla en:qwertyuiop, 01012001</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Demasiados If y condiciones largas, en lugar de usar un Switch</t>
+  </si>
+  <si>
+    <t>No hqay retornos directos, hay if and else</t>
+  </si>
+  <si>
+    <t>Oeracionees de Validacion combinadas</t>
+  </si>
+  <si>
+    <t>Hay mucha logica combinada</t>
+  </si>
+  <si>
+    <t>No hay uso de constantse donde si pudiera tnerlas</t>
+  </si>
+  <si>
+    <t>Se complica en algunos momentos por la combinacion de logica en las funciones</t>
   </si>
 </sst>
 </file>
@@ -570,7 +597,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +630,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -617,9 +644,11 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -629,9 +658,11 @@
         <v>1.5</v>
       </c>
       <c r="C4" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -641,9 +672,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -654,7 +687,7 @@
       </c>
       <c r="C6" s="22">
         <f>SUM(C10:C24)</f>
-        <v>1.5000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -665,7 +698,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -731,13 +764,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -835,52 +870,60 @@
         <v>22</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B24">

--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -134,10 +134,10 @@
     <t>Hay mucha logica combinada</t>
   </si>
   <si>
-    <t>No hay uso de constantse donde si pudiera tnerlas</t>
-  </si>
-  <si>
     <t>Se complica en algunos momentos por la combinacion de logica en las funciones</t>
+  </si>
+  <si>
+    <t>No hay uso de constantes donde si pudiera tnerlas</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>0.8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Practices\01.Clean-Code\StringCompress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8E984-722C-4FA3-92C2-6B7E2037D20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -277,20 +286,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -573,22 +572,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -602,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +611,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -626,7 +623,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -638,7 +635,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -650,7 +647,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -663,7 +660,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
@@ -674,11 +671,11 @@
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -692,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -705,7 +702,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -718,7 +715,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -731,7 +728,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
@@ -744,7 +741,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -757,7 +754,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
@@ -770,7 +767,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -783,7 +780,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
@@ -796,7 +793,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -809,7 +806,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
@@ -822,7 +819,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -835,7 +832,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>22</v>
       </c>
@@ -848,7 +845,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -861,7 +858,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
@@ -874,7 +871,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -897,7 +894,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Practices\01.Clean-Code\StringCompress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796374F7-EC29-49D1-97D9-638A0385C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -277,20 +286,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -573,22 +572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -602,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +613,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -626,7 +625,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -638,7 +637,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -650,7 +649,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -663,7 +662,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
@@ -674,11 +673,11 @@
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -692,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -705,7 +704,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -718,7 +717,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -731,7 +730,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
@@ -744,7 +743,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -757,7 +756,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
@@ -770,7 +769,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -783,7 +782,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
@@ -796,7 +795,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -809,7 +808,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
@@ -822,7 +821,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -835,7 +834,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>22</v>
       </c>
@@ -848,7 +847,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
@@ -861,7 +860,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
@@ -874,7 +873,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -897,7 +896,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>
